--- a/experiment/quadratic/ex9_2_2/compare/C-Estacionario/ex9_2_2_C-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_2/compare/C-Estacionario/ex9_2_2_C-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-1327.0057915846605</v>
       </c>
       <c r="E2">
-        <v>0.0030915</v>
+        <v>0.002575108</v>
       </c>
       <c r="F2">
-        <v>0.01127871</v>
+        <v>0.019240989</v>
       </c>
       <c r="G2">
-        <v>0.003869846372093023</v>
+        <v>0.003636090177713037</v>
       </c>
       <c r="H2">
         <v>2064</v>
@@ -514,13 +514,13 @@
         <v>-1327.0058025518042</v>
       </c>
       <c r="E3">
-        <v>0.00417429</v>
+        <v>0.003858585</v>
       </c>
       <c r="F3">
-        <v>0.00820917</v>
+        <v>0.031730138</v>
       </c>
       <c r="G3">
-        <v>0.0046788957919400185</v>
+        <v>0.0051832394190871375</v>
       </c>
       <c r="H3">
         <v>5322</v>
